--- a/fuentes/contenidos/grado11/guion01/GUION 1 2016/Escaleta_LE_11_01_CO.xlsx
+++ b/fuentes/contenidos/grado11/guion01/GUION 1 2016/Escaleta_LE_11_01_CO.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="267">
   <si>
     <t>Asignatura</t>
   </si>
@@ -477,9 +477,6 @@
     <t>Interactivo que te permitirá conocer las teorías de la pragmática de la lengua, basadas en los usos más frecuentes que hacemos de ella</t>
   </si>
   <si>
-    <t xml:space="preserve">El modelo básico del proceso de la comunicación </t>
-  </si>
-  <si>
     <t>Analiza los elementos de la comunicación</t>
   </si>
   <si>
@@ -501,27 +498,18 @@
     <t>Ortografía: ¿para qué sirve la ortografía?</t>
   </si>
   <si>
-    <t>La ortografía y la cohesión</t>
-  </si>
-  <si>
     <t>La ortografía</t>
   </si>
   <si>
     <t>Interactivo que sirve para mejorar la comprensión lectora y reflexionar sobre algunos elementos del texto</t>
   </si>
   <si>
-    <t>El acento ortográfico o tilde</t>
-  </si>
-  <si>
     <t>Acentúa las oraciones</t>
   </si>
   <si>
     <t xml:space="preserve">Actividad para repasar las normas de acentuación y tilde diacrítica </t>
   </si>
   <si>
-    <t>Los signos de puntuación y la cohesión en las oraciones</t>
-  </si>
-  <si>
     <t>El punto y coma</t>
   </si>
   <si>
@@ -534,16 +522,7 @@
     <t>Actividad para reforzar tus conocimientos sobre ortografía</t>
   </si>
   <si>
-    <t>Comprensión textual y lectura crítica: la ponencia</t>
-  </si>
-  <si>
-    <t>Estrategia de lectura</t>
-  </si>
-  <si>
     <t>Interactivo que te permitirá practicar estrategias de lectura de textos expositivos y argumentativos: la ponencia</t>
-  </si>
-  <si>
-    <t>Las características de la ponencia</t>
   </si>
   <si>
     <t xml:space="preserve">Estrategia de lectura: reconocer el desarrollo argumentativo </t>
@@ -968,12 +947,24 @@
       <t xml:space="preserve"> Seguir las pestañas de proyectos: Introducción, Tarea, Proceso y Conclusión. Es necesario caracterizar brevemente la técnica del seminario, proponer que se realicen ponencia relacionadas con los temas de la literatura de la  Antigüedad o de alguna aspecto significativo de las tragedias griegas.  Anotación importante: debe ser un f13. Realizado Online y enviado en Zip.</t>
     </r>
   </si>
+  <si>
+    <t>Los conceptos fundamentales de la pragmática</t>
+  </si>
+  <si>
+    <t>Lectura crítica: la ponencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La intención comunicativa de las ponencias </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Las características de la ponencia </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1020,13 +1011,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1199,81 +1183,6 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1328,6 +1237,81 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1665,9 +1649,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O249" sqref="O249"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1695,94 +1679,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="9" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="30"/>
-      <c r="O1" s="18" t="s">
+      <c r="N1" s="59"/>
+      <c r="O1" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="Q1" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="R1" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="33" t="s">
+      <c r="S1" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="35" t="s">
+      <c r="T1" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="33" t="s">
+      <c r="U1" s="39" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="25"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="54"/>
       <c r="M2" s="10" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="34"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="40"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -1791,16 +1775,16 @@
       <c r="B3" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="E3" s="41"/>
+      <c r="E3" s="16"/>
       <c r="F3" s="13"/>
-      <c r="G3" s="42" t="s">
-        <v>241</v>
+      <c r="G3" s="17" t="s">
+        <v>234</v>
       </c>
       <c r="H3" s="13">
         <v>1</v>
@@ -1808,39 +1792,39 @@
       <c r="I3" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="J3" s="43" t="s">
+      <c r="J3" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="22" t="s">
         <v>242</v>
-      </c>
-      <c r="K3" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="L3" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="47" t="s">
-        <v>249</v>
       </c>
       <c r="P3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="48">
+      <c r="Q3" s="23">
         <v>6</v>
       </c>
-      <c r="R3" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="S3" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="T3" s="50" t="s">
-        <v>200</v>
-      </c>
-      <c r="U3" s="48" t="s">
-        <v>191</v>
+      <c r="R3" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="S3" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="T3" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="U3" s="23" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1850,56 +1834,56 @@
       <c r="B4" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="42" t="s">
+      <c r="E4" s="28"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="17" t="s">
         <v>129</v>
       </c>
       <c r="H4" s="11">
         <v>2</v>
       </c>
-      <c r="I4" s="55" t="s">
+      <c r="I4" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="J4" s="43" t="s">
+      <c r="J4" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="K4" s="56" t="s">
+      <c r="K4" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="L4" s="57" t="s">
+      <c r="L4" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58" t="s">
+      <c r="M4" s="33"/>
+      <c r="N4" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="47" t="s">
-        <v>249</v>
+      <c r="O4" s="22" t="s">
+        <v>242</v>
       </c>
       <c r="P4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="48">
+      <c r="Q4" s="23">
         <v>6</v>
       </c>
-      <c r="R4" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="S4" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="T4" s="50" t="s">
-        <v>192</v>
-      </c>
-      <c r="U4" s="48" t="s">
-        <v>191</v>
+      <c r="R4" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="S4" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="T4" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="U4" s="23" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1909,56 +1893,56 @@
       <c r="B5" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="E5" s="53"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="42" t="s">
-        <v>234</v>
+      <c r="E5" s="28"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="17" t="s">
+        <v>227</v>
       </c>
       <c r="H5" s="11">
         <v>3</v>
       </c>
-      <c r="I5" s="55" t="s">
+      <c r="I5" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="J5" s="43" t="s">
-        <v>243</v>
-      </c>
-      <c r="K5" s="56" t="s">
+      <c r="J5" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="K5" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="L5" s="57" t="s">
+      <c r="L5" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58" t="s">
+      <c r="M5" s="33"/>
+      <c r="N5" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="47" t="s">
-        <v>249</v>
+      <c r="O5" s="22" t="s">
+        <v>242</v>
       </c>
       <c r="P5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="48">
+      <c r="Q5" s="23">
         <v>6</v>
       </c>
-      <c r="R5" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="S5" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="T5" s="50" t="s">
-        <v>193</v>
-      </c>
-      <c r="U5" s="48" t="s">
-        <v>191</v>
+      <c r="R5" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="S5" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="T5" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="U5" s="23" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1971,53 +1955,53 @@
       <c r="C6" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="42" t="s">
-        <v>235</v>
+      <c r="E6" s="28"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="17" t="s">
+        <v>228</v>
       </c>
       <c r="H6" s="11">
         <v>4</v>
       </c>
-      <c r="I6" s="55" t="s">
+      <c r="I6" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="J6" s="43" t="s">
+      <c r="J6" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="K6" s="56" t="s">
+      <c r="K6" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="L6" s="57" t="s">
+      <c r="L6" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58" t="s">
+      <c r="M6" s="33"/>
+      <c r="N6" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="O6" s="47" t="s">
-        <v>249</v>
+      <c r="O6" s="22" t="s">
+        <v>242</v>
       </c>
       <c r="P6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="48">
+      <c r="Q6" s="23">
         <v>6</v>
       </c>
-      <c r="R6" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="S6" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="T6" s="50" t="s">
-        <v>194</v>
-      </c>
-      <c r="U6" s="48" t="s">
-        <v>191</v>
+      <c r="R6" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="S6" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="T6" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="U6" s="23" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2027,56 +2011,56 @@
       <c r="B7" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="42" t="s">
-        <v>244</v>
+      <c r="E7" s="28"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="17" t="s">
+        <v>237</v>
       </c>
       <c r="H7" s="11">
         <v>5</v>
       </c>
-      <c r="I7" s="55" t="s">
+      <c r="I7" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="J7" s="43" t="s">
-        <v>245</v>
-      </c>
-      <c r="K7" s="56" t="s">
+      <c r="J7" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="K7" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="L7" s="57" t="s">
+      <c r="L7" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="M7" s="58" t="s">
+      <c r="M7" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="N7" s="58"/>
-      <c r="O7" s="54" t="s">
-        <v>248</v>
+      <c r="N7" s="33"/>
+      <c r="O7" s="29" t="s">
+        <v>241</v>
       </c>
       <c r="P7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="48">
+      <c r="Q7" s="23">
         <v>6</v>
       </c>
-      <c r="R7" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="S7" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="T7" s="50" t="s">
-        <v>197</v>
-      </c>
-      <c r="U7" s="48" t="s">
-        <v>198</v>
+      <c r="R7" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="S7" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="T7" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="U7" s="23" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2086,58 +2070,58 @@
       <c r="B8" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="F8" s="54"/>
-      <c r="G8" s="42" t="s">
-        <v>236</v>
+      <c r="F8" s="29"/>
+      <c r="G8" s="17" t="s">
+        <v>229</v>
       </c>
       <c r="H8" s="11">
         <v>6</v>
       </c>
-      <c r="I8" s="55" t="s">
+      <c r="I8" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="J8" s="43" t="s">
+      <c r="J8" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="K8" s="56" t="s">
+      <c r="K8" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="L8" s="57" t="s">
+      <c r="L8" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="M8" s="58" t="s">
+      <c r="M8" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="N8" s="58"/>
-      <c r="O8" s="59" t="s">
-        <v>264</v>
+      <c r="N8" s="33"/>
+      <c r="O8" s="34" t="s">
+        <v>257</v>
       </c>
       <c r="P8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="48">
+      <c r="Q8" s="23">
         <v>6</v>
       </c>
-      <c r="R8" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="S8" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="T8" s="50" t="s">
-        <v>199</v>
-      </c>
-      <c r="U8" s="48" t="s">
-        <v>198</v>
+      <c r="R8" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="S8" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="T8" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="U8" s="23" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2147,60 +2131,60 @@
       <c r="B9" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="53" t="s">
+      <c r="E9" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="F9" s="54" t="s">
+      <c r="F9" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="17" t="s">
         <v>139</v>
       </c>
       <c r="H9" s="11">
         <v>7</v>
       </c>
-      <c r="I9" s="55" t="s">
+      <c r="I9" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="J9" s="43" t="s">
-        <v>246</v>
-      </c>
-      <c r="K9" s="56" t="s">
+      <c r="J9" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="K9" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="L9" s="57" t="s">
+      <c r="L9" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58" t="s">
+      <c r="M9" s="33"/>
+      <c r="N9" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="O9" s="54" t="s">
-        <v>247</v>
+      <c r="O9" s="29" t="s">
+        <v>240</v>
       </c>
       <c r="P9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="48">
+      <c r="Q9" s="23">
         <v>6</v>
       </c>
-      <c r="R9" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="S9" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="T9" s="50" t="s">
-        <v>260</v>
-      </c>
-      <c r="U9" s="48" t="s">
-        <v>191</v>
+      <c r="R9" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="S9" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="T9" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="U9" s="23" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2210,60 +2194,60 @@
       <c r="B10" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="D10" s="52" t="s">
+      <c r="D10" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="E10" s="53" t="s">
+      <c r="E10" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="F10" s="54" t="s">
+      <c r="F10" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="G10" s="42" t="s">
+      <c r="G10" s="17" t="s">
         <v>141</v>
       </c>
       <c r="H10" s="11">
         <v>8</v>
       </c>
-      <c r="I10" s="55" t="s">
+      <c r="I10" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="43" t="s">
+      <c r="J10" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="K10" s="56" t="s">
+      <c r="K10" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="L10" s="57" t="s">
+      <c r="L10" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="M10" s="58" t="s">
+      <c r="M10" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="N10" s="58"/>
-      <c r="O10" s="54" t="s">
-        <v>265</v>
+      <c r="N10" s="33"/>
+      <c r="O10" s="29" t="s">
+        <v>258</v>
       </c>
       <c r="P10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="48">
+      <c r="Q10" s="23">
         <v>6</v>
       </c>
-      <c r="R10" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="S10" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="T10" s="50" t="s">
-        <v>201</v>
-      </c>
-      <c r="U10" s="48" t="s">
-        <v>198</v>
+      <c r="R10" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="S10" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="T10" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="U10" s="23" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2273,58 +2257,58 @@
       <c r="B11" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="E11" s="53" t="s">
+      <c r="E11" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="F11" s="54"/>
-      <c r="G11" s="42" t="s">
+      <c r="F11" s="29"/>
+      <c r="G11" s="17" t="s">
         <v>144</v>
       </c>
       <c r="H11" s="11">
         <v>9</v>
       </c>
-      <c r="I11" s="55" t="s">
+      <c r="I11" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="J11" s="43" t="s">
+      <c r="J11" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="K11" s="56" t="s">
+      <c r="K11" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="L11" s="57" t="s">
+      <c r="L11" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58" t="s">
+      <c r="M11" s="33"/>
+      <c r="N11" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="O11" s="54" t="s">
-        <v>250</v>
+      <c r="O11" s="29" t="s">
+        <v>243</v>
       </c>
       <c r="P11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="48">
+      <c r="Q11" s="23">
         <v>6</v>
       </c>
-      <c r="R11" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="S11" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="T11" s="50" t="s">
-        <v>203</v>
-      </c>
-      <c r="U11" s="48" t="s">
-        <v>191</v>
+      <c r="R11" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="S11" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="T11" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="U11" s="23" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -2334,56 +2318,56 @@
       <c r="B12" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="E12" s="53"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="42" t="s">
+      <c r="E12" s="28"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="17" t="s">
         <v>147</v>
       </c>
       <c r="H12" s="11">
         <v>10</v>
       </c>
-      <c r="I12" s="55" t="s">
+      <c r="I12" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="43" t="s">
+      <c r="J12" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="K12" s="56" t="s">
+      <c r="K12" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="L12" s="57" t="s">
+      <c r="L12" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="M12" s="58" t="s">
+      <c r="M12" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="N12" s="58"/>
-      <c r="O12" s="60" t="s">
-        <v>261</v>
+      <c r="N12" s="33"/>
+      <c r="O12" s="35" t="s">
+        <v>254</v>
       </c>
       <c r="P12" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="48">
+      <c r="Q12" s="23">
         <v>6</v>
       </c>
-      <c r="R12" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="S12" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="T12" s="50" t="s">
-        <v>204</v>
-      </c>
-      <c r="U12" s="48" t="s">
-        <v>198</v>
+      <c r="R12" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="S12" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="T12" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="U12" s="23" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2393,56 +2377,56 @@
       <c r="B13" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="E13" s="53" t="s">
+      <c r="E13" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="F13" s="29"/>
+      <c r="G13" s="17" t="s">
         <v>149</v>
-      </c>
-      <c r="F13" s="54"/>
-      <c r="G13" s="42" t="s">
-        <v>150</v>
       </c>
       <c r="H13" s="11">
         <v>11</v>
       </c>
-      <c r="I13" s="55" t="s">
+      <c r="I13" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="J13" s="43" t="s">
-        <v>251</v>
-      </c>
-      <c r="K13" s="56" t="s">
-        <v>151</v>
-      </c>
-      <c r="L13" s="57" t="s">
+      <c r="J13" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="K13" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="L13" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="54" t="s">
-        <v>205</v>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="29" t="s">
+        <v>198</v>
       </c>
       <c r="P13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="48" t="s">
-        <v>206</v>
-      </c>
-      <c r="R13" s="49" t="s">
-        <v>207</v>
-      </c>
-      <c r="S13" s="48" t="s">
-        <v>208</v>
-      </c>
-      <c r="T13" s="50" t="s">
-        <v>209</v>
-      </c>
-      <c r="U13" s="48" t="s">
-        <v>210</v>
+      <c r="Q13" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="R13" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="S13" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="T13" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="U13" s="23" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2452,56 +2436,56 @@
       <c r="B14" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="D14" s="52" t="s">
+      <c r="D14" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="E14" s="53" t="s">
+      <c r="E14" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="F14" s="29"/>
+      <c r="G14" s="17" t="s">
         <v>152</v>
-      </c>
-      <c r="F14" s="54"/>
-      <c r="G14" s="42" t="s">
-        <v>153</v>
       </c>
       <c r="H14" s="11">
         <v>12</v>
       </c>
-      <c r="I14" s="55" t="s">
+      <c r="I14" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="J14" s="43" t="s">
-        <v>252</v>
-      </c>
-      <c r="K14" s="56" t="s">
-        <v>151</v>
-      </c>
-      <c r="L14" s="57" t="s">
+      <c r="J14" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="K14" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="L14" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="54" t="s">
-        <v>211</v>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="29" t="s">
+        <v>204</v>
       </c>
       <c r="P14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="48" t="s">
-        <v>206</v>
-      </c>
-      <c r="R14" s="49" t="s">
-        <v>207</v>
-      </c>
-      <c r="S14" s="48" t="s">
-        <v>208</v>
-      </c>
-      <c r="T14" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="U14" s="48" t="s">
-        <v>210</v>
+      <c r="Q14" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="R14" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="S14" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="T14" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="U14" s="23" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2511,58 +2495,58 @@
       <c r="B15" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="E15" s="53" t="s">
+      <c r="E15" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="F15" s="54"/>
-      <c r="G15" s="42" t="s">
-        <v>154</v>
+      <c r="F15" s="29"/>
+      <c r="G15" s="17" t="s">
+        <v>153</v>
       </c>
       <c r="H15" s="11">
         <v>13</v>
       </c>
-      <c r="I15" s="55" t="s">
+      <c r="I15" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="J15" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="K15" s="56" t="s">
+      <c r="J15" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="K15" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="L15" s="57" t="s">
+      <c r="L15" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58" t="s">
+      <c r="M15" s="33"/>
+      <c r="N15" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="O15" s="54" t="s">
-        <v>254</v>
+      <c r="O15" s="29" t="s">
+        <v>247</v>
       </c>
       <c r="P15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="48">
+      <c r="Q15" s="23">
         <v>6</v>
       </c>
-      <c r="R15" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="S15" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="T15" s="50" t="s">
-        <v>212</v>
-      </c>
-      <c r="U15" s="48" t="s">
-        <v>191</v>
+      <c r="R15" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="S15" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="T15" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="U15" s="23" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2572,58 +2556,56 @@
       <c r="B16" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E16" s="28"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="17" t="s">
         <v>156</v>
-      </c>
-      <c r="E16" s="53" t="s">
-        <v>157</v>
-      </c>
-      <c r="F16" s="54"/>
-      <c r="G16" s="42" t="s">
-        <v>158</v>
       </c>
       <c r="H16" s="11">
         <v>14</v>
       </c>
-      <c r="I16" s="55" t="s">
+      <c r="I16" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="K16" s="56" t="s">
-        <v>151</v>
-      </c>
-      <c r="L16" s="57" t="s">
+      <c r="J16" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="K16" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="L16" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="M16" s="58" t="s">
+      <c r="M16" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="N16" s="58"/>
-      <c r="O16" s="54" t="s">
-        <v>255</v>
+      <c r="N16" s="33"/>
+      <c r="O16" s="29" t="s">
+        <v>248</v>
       </c>
       <c r="P16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="48" t="s">
-        <v>213</v>
-      </c>
-      <c r="R16" s="49" t="s">
+      <c r="Q16" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="R16" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="S16" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="T16" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="S16" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="T16" s="50" t="s">
-        <v>214</v>
-      </c>
-      <c r="U16" s="48" t="s">
-        <v>215</v>
+      <c r="U16" s="23" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2633,56 +2615,54 @@
       <c r="B17" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="D17" s="52" t="s">
-        <v>156</v>
-      </c>
-      <c r="E17" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="F17" s="54"/>
-      <c r="G17" s="42" t="s">
-        <v>161</v>
+      <c r="D17" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E17" s="28"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="17" t="s">
+        <v>158</v>
       </c>
       <c r="H17" s="11">
         <v>15</v>
       </c>
-      <c r="I17" s="55" t="s">
+      <c r="I17" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="J17" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="K17" s="56" t="s">
-        <v>151</v>
-      </c>
-      <c r="L17" s="57" t="s">
+      <c r="J17" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="K17" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="L17" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="54" t="s">
-        <v>216</v>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="29" t="s">
+        <v>209</v>
       </c>
       <c r="P17" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="48" t="s">
-        <v>213</v>
-      </c>
-      <c r="R17" s="49" t="s">
-        <v>207</v>
-      </c>
-      <c r="S17" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="T17" s="50" t="s">
-        <v>217</v>
-      </c>
-      <c r="U17" s="48" t="s">
-        <v>215</v>
+      <c r="Q17" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="R17" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="S17" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="T17" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="U17" s="23" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2692,56 +2672,54 @@
       <c r="B18" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="D18" s="52" t="s">
-        <v>156</v>
-      </c>
-      <c r="E18" s="53" t="s">
-        <v>163</v>
-      </c>
-      <c r="F18" s="54"/>
-      <c r="G18" s="42" t="s">
-        <v>164</v>
+      <c r="D18" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E18" s="28"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="17" t="s">
+        <v>160</v>
       </c>
       <c r="H18" s="11">
         <v>16</v>
       </c>
-      <c r="I18" s="55" t="s">
+      <c r="I18" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="K18" s="56" t="s">
-        <v>151</v>
-      </c>
-      <c r="L18" s="57" t="s">
+      <c r="J18" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="K18" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="L18" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="54" t="s">
-        <v>255</v>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="29" t="s">
+        <v>248</v>
       </c>
       <c r="P18" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="48" t="s">
-        <v>213</v>
-      </c>
-      <c r="R18" s="49" t="s">
-        <v>207</v>
-      </c>
-      <c r="S18" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="T18" s="50" t="s">
-        <v>164</v>
-      </c>
-      <c r="U18" s="48" t="s">
-        <v>215</v>
+      <c r="Q18" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="R18" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="S18" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="T18" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="U18" s="23" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2751,58 +2729,58 @@
       <c r="B19" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="D19" s="52" t="s">
-        <v>156</v>
-      </c>
-      <c r="E19" s="53" t="s">
+      <c r="D19" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E19" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="F19" s="54"/>
-      <c r="G19" s="42" t="s">
-        <v>166</v>
+      <c r="F19" s="29"/>
+      <c r="G19" s="17" t="s">
+        <v>162</v>
       </c>
       <c r="H19" s="11">
         <v>17</v>
       </c>
-      <c r="I19" s="55" t="s">
+      <c r="I19" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="J19" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="K19" s="56" t="s">
+      <c r="J19" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="K19" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="L19" s="57" t="s">
+      <c r="L19" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58" t="s">
+      <c r="M19" s="33"/>
+      <c r="N19" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="O19" s="54" t="s">
-        <v>253</v>
+      <c r="O19" s="29" t="s">
+        <v>246</v>
       </c>
       <c r="P19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="48">
+      <c r="Q19" s="23">
         <v>6</v>
       </c>
-      <c r="R19" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="S19" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="T19" s="50" t="s">
-        <v>218</v>
-      </c>
-      <c r="U19" s="48" t="s">
-        <v>191</v>
+      <c r="R19" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="S19" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="T19" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="U19" s="23" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2812,58 +2790,58 @@
       <c r="B20" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="D20" s="52" t="s">
-        <v>168</v>
-      </c>
-      <c r="E20" s="53" t="s">
-        <v>169</v>
-      </c>
-      <c r="F20" s="54"/>
-      <c r="G20" s="42" t="s">
+      <c r="D20" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="F20" s="29"/>
+      <c r="G20" s="17" t="s">
         <v>124</v>
       </c>
       <c r="H20" s="11">
         <v>18</v>
       </c>
-      <c r="I20" s="55" t="s">
+      <c r="I20" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="J20" s="43" t="s">
-        <v>170</v>
-      </c>
-      <c r="K20" s="56" t="s">
+      <c r="J20" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="K20" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="L20" s="57" t="s">
+      <c r="L20" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="M20" s="58" t="s">
+      <c r="M20" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="N20" s="58"/>
-      <c r="O20" s="60" t="s">
-        <v>266</v>
+      <c r="N20" s="33"/>
+      <c r="O20" s="35" t="s">
+        <v>259</v>
       </c>
       <c r="P20" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="48">
+      <c r="Q20" s="23">
         <v>6</v>
       </c>
-      <c r="R20" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="S20" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="T20" s="50" t="s">
-        <v>219</v>
-      </c>
-      <c r="U20" s="48" t="s">
-        <v>198</v>
+      <c r="R20" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="S20" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="T20" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="U20" s="23" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="150" x14ac:dyDescent="0.25">
@@ -2873,58 +2851,58 @@
       <c r="B21" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="D21" s="52" t="s">
-        <v>168</v>
-      </c>
-      <c r="E21" s="53" t="s">
-        <v>171</v>
-      </c>
-      <c r="F21" s="54"/>
-      <c r="G21" s="42" t="s">
-        <v>238</v>
+      <c r="D21" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="F21" s="29"/>
+      <c r="G21" s="17" t="s">
+        <v>231</v>
       </c>
       <c r="H21" s="11">
         <v>19</v>
       </c>
-      <c r="I21" s="55" t="s">
+      <c r="I21" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="J21" s="43" t="s">
-        <v>237</v>
-      </c>
-      <c r="K21" s="56" t="s">
+      <c r="J21" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="K21" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="L21" s="57" t="s">
+      <c r="L21" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="M21" s="58"/>
-      <c r="N21" s="58" t="s">
+      <c r="M21" s="33"/>
+      <c r="N21" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="O21" s="60" t="s">
-        <v>267</v>
+      <c r="O21" s="35" t="s">
+        <v>260</v>
       </c>
       <c r="P21" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="48">
+      <c r="Q21" s="23">
         <v>6</v>
       </c>
-      <c r="R21" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="S21" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="T21" s="50" t="s">
-        <v>220</v>
-      </c>
-      <c r="U21" s="48" t="s">
-        <v>191</v>
+      <c r="R21" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="S21" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="T21" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="U21" s="23" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2934,58 +2912,58 @@
       <c r="B22" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C22" s="51" t="s">
+      <c r="C22" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="D22" s="52" t="s">
-        <v>168</v>
-      </c>
-      <c r="E22" s="53" t="s">
-        <v>172</v>
-      </c>
-      <c r="F22" s="54"/>
-      <c r="G22" s="42" t="s">
-        <v>239</v>
+      <c r="D22" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="17" t="s">
+        <v>232</v>
       </c>
       <c r="H22" s="11">
         <v>20</v>
       </c>
-      <c r="I22" s="55" t="s">
+      <c r="I22" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="J22" s="43" t="s">
+      <c r="J22" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="K22" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="L22" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="O22" s="35" t="s">
         <v>256</v>
-      </c>
-      <c r="K22" s="56" t="s">
-        <v>127</v>
-      </c>
-      <c r="L22" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="O22" s="60" t="s">
-        <v>263</v>
       </c>
       <c r="P22" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Q22" s="48">
+      <c r="Q22" s="23">
         <v>6</v>
       </c>
-      <c r="R22" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="S22" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="T22" s="50" t="s">
-        <v>221</v>
-      </c>
-      <c r="U22" s="48" t="s">
-        <v>191</v>
+      <c r="R22" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="S22" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="T22" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="U22" s="23" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2995,58 +2973,58 @@
       <c r="B23" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="D23" s="52" t="s">
-        <v>168</v>
-      </c>
-      <c r="E23" s="53" t="s">
+      <c r="D23" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="E23" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="F23" s="54"/>
-      <c r="G23" s="42" t="s">
-        <v>173</v>
+      <c r="F23" s="29"/>
+      <c r="G23" s="17" t="s">
+        <v>166</v>
       </c>
       <c r="H23" s="11">
         <v>21</v>
       </c>
-      <c r="I23" s="55" t="s">
+      <c r="I23" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="J23" s="43" t="s">
-        <v>174</v>
-      </c>
-      <c r="K23" s="56" t="s">
+      <c r="J23" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="K23" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="L23" s="57" t="s">
+      <c r="L23" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="M23" s="58"/>
-      <c r="N23" s="58" t="s">
+      <c r="M23" s="33"/>
+      <c r="N23" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="O23" s="54" t="s">
-        <v>202</v>
+      <c r="O23" s="29" t="s">
+        <v>195</v>
       </c>
       <c r="P23" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="48">
+      <c r="Q23" s="23">
         <v>6</v>
       </c>
-      <c r="R23" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="S23" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="T23" s="50" t="s">
-        <v>222</v>
-      </c>
-      <c r="U23" s="48" t="s">
-        <v>191</v>
+      <c r="R23" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="S23" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="T23" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="U23" s="23" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3056,58 +3034,58 @@
       <c r="B24" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="C24" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="D24" s="52" t="s">
-        <v>175</v>
-      </c>
-      <c r="E24" s="53" t="s">
-        <v>176</v>
-      </c>
-      <c r="F24" s="54"/>
-      <c r="G24" s="42" t="s">
-        <v>177</v>
+      <c r="D24" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="F24" s="29"/>
+      <c r="G24" s="17" t="s">
+        <v>170</v>
       </c>
       <c r="H24" s="11">
         <v>22</v>
       </c>
-      <c r="I24" s="55" t="s">
+      <c r="I24" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="J24" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="K24" s="56" t="s">
+      <c r="J24" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="K24" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="L24" s="57" t="s">
+      <c r="L24" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="M24" s="58"/>
-      <c r="N24" s="58" t="s">
+      <c r="M24" s="33"/>
+      <c r="N24" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="O24" s="54" t="s">
-        <v>223</v>
+      <c r="O24" s="29" t="s">
+        <v>216</v>
       </c>
       <c r="P24" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="48">
+      <c r="Q24" s="23">
         <v>6</v>
       </c>
-      <c r="R24" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="S24" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="T24" s="50" t="s">
-        <v>224</v>
-      </c>
-      <c r="U24" s="48" t="s">
-        <v>191</v>
+      <c r="R24" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="S24" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="T24" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="U24" s="23" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3117,58 +3095,58 @@
       <c r="B25" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="51" t="s">
+      <c r="C25" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="D25" s="52" t="s">
-        <v>175</v>
-      </c>
-      <c r="E25" s="53" t="s">
-        <v>179</v>
-      </c>
-      <c r="F25" s="54"/>
-      <c r="G25" s="42" t="s">
-        <v>179</v>
+      <c r="D25" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="F25" s="29"/>
+      <c r="G25" s="17" t="s">
+        <v>172</v>
       </c>
       <c r="H25" s="11">
         <v>23</v>
       </c>
-      <c r="I25" s="55" t="s">
+      <c r="I25" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="J25" s="43" t="s">
-        <v>180</v>
-      </c>
-      <c r="K25" s="56" t="s">
+      <c r="J25" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="K25" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="L25" s="57" t="s">
+      <c r="L25" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="M25" s="58" t="s">
+      <c r="M25" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="N25" s="58"/>
-      <c r="O25" s="61" t="s">
-        <v>268</v>
+      <c r="N25" s="33"/>
+      <c r="O25" s="36" t="s">
+        <v>261</v>
       </c>
       <c r="P25" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="48">
+      <c r="Q25" s="23">
         <v>6</v>
       </c>
-      <c r="R25" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="S25" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="T25" s="50" t="s">
-        <v>225</v>
-      </c>
-      <c r="U25" s="48" t="s">
-        <v>198</v>
+      <c r="R25" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="S25" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="T25" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="U25" s="23" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3178,56 +3156,56 @@
       <c r="B26" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C26" s="51" t="s">
+      <c r="C26" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="D26" s="52" t="s">
-        <v>175</v>
-      </c>
-      <c r="E26" s="53" t="s">
+      <c r="D26" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="E26" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="F26" s="54"/>
-      <c r="G26" s="42" t="s">
-        <v>257</v>
+      <c r="F26" s="29"/>
+      <c r="G26" s="17" t="s">
+        <v>250</v>
       </c>
       <c r="H26" s="11">
         <v>24</v>
       </c>
-      <c r="I26" s="55" t="s">
+      <c r="I26" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="43" t="s">
-        <v>181</v>
-      </c>
-      <c r="K26" s="56" t="s">
+      <c r="J26" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="K26" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="L26" s="57"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="58" t="s">
+      <c r="L26" s="32"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="O26" s="54" t="s">
-        <v>254</v>
+      <c r="O26" s="29" t="s">
+        <v>247</v>
       </c>
       <c r="P26" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="48">
+      <c r="Q26" s="23">
         <v>6</v>
       </c>
-      <c r="R26" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="S26" s="48" t="s">
-        <v>226</v>
-      </c>
-      <c r="T26" s="50" t="s">
-        <v>227</v>
-      </c>
-      <c r="U26" s="48" t="s">
-        <v>228</v>
+      <c r="R26" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="S26" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="T26" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="U26" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3237,54 +3215,54 @@
       <c r="B27" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C27" s="51" t="s">
+      <c r="C27" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="D27" s="52" t="s">
-        <v>182</v>
-      </c>
-      <c r="E27" s="53"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="42" t="s">
-        <v>240</v>
+      <c r="D27" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="E27" s="28"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="17" t="s">
+        <v>233</v>
       </c>
       <c r="H27" s="11">
         <v>25</v>
       </c>
-      <c r="I27" s="55" t="s">
+      <c r="I27" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="J27" s="43" t="s">
-        <v>258</v>
-      </c>
-      <c r="K27" s="56" t="s">
+      <c r="J27" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="K27" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="L27" s="57"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="58" t="s">
+      <c r="L27" s="32"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="O27" s="54" t="s">
-        <v>269</v>
+      <c r="O27" s="29" t="s">
+        <v>262</v>
       </c>
       <c r="P27" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="48">
+      <c r="Q27" s="23">
         <v>6</v>
       </c>
-      <c r="R27" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="S27" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="T27" s="50" t="s">
-        <v>229</v>
-      </c>
-      <c r="U27" s="48" t="s">
-        <v>198</v>
+      <c r="R27" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="S27" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="T27" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="U27" s="23" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3294,43 +3272,43 @@
       <c r="B28" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C28" s="51" t="s">
+      <c r="C28" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="D28" s="52" t="s">
-        <v>183</v>
-      </c>
-      <c r="E28" s="53"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="42" t="s">
+      <c r="D28" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="E28" s="28"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="17" t="s">
         <v>10</v>
       </c>
       <c r="H28" s="11">
         <v>26</v>
       </c>
-      <c r="I28" s="55" t="s">
+      <c r="I28" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="J28" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="K28" s="56" t="s">
+      <c r="J28" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="K28" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="L28" s="57" t="s">
-        <v>185</v>
-      </c>
-      <c r="M28" s="58"/>
-      <c r="N28" s="58"/>
-      <c r="O28" s="54"/>
+      <c r="L28" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="29"/>
       <c r="P28" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="48"/>
-      <c r="R28" s="49"/>
-      <c r="S28" s="48"/>
-      <c r="T28" s="50"/>
-      <c r="U28" s="48"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="23"/>
     </row>
     <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -3339,56 +3317,56 @@
       <c r="B29" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="51" t="s">
+      <c r="C29" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="D29" s="52" t="s">
-        <v>183</v>
-      </c>
-      <c r="E29" s="53"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="42" t="s">
-        <v>186</v>
+      <c r="D29" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="E29" s="28"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="17" t="s">
+        <v>179</v>
       </c>
       <c r="H29" s="11">
         <v>27</v>
       </c>
-      <c r="I29" s="55" t="s">
+      <c r="I29" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="J29" s="43" t="s">
-        <v>259</v>
-      </c>
-      <c r="K29" s="56" t="s">
+      <c r="J29" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="K29" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="L29" s="57" t="s">
+      <c r="L29" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="M29" s="58"/>
-      <c r="N29" s="58" t="s">
+      <c r="M29" s="33"/>
+      <c r="N29" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="O29" s="54" t="s">
-        <v>233</v>
+      <c r="O29" s="29" t="s">
+        <v>226</v>
       </c>
       <c r="P29" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="48">
+      <c r="Q29" s="23">
         <v>6</v>
       </c>
-      <c r="R29" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="S29" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="T29" s="50" t="s">
-        <v>230</v>
-      </c>
-      <c r="U29" s="48" t="s">
-        <v>191</v>
+      <c r="R29" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="S29" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="T29" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="U29" s="23" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="105" x14ac:dyDescent="0.25">
@@ -3398,56 +3376,56 @@
       <c r="B30" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C30" s="51" t="s">
+      <c r="C30" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="D30" s="52" t="s">
-        <v>183</v>
-      </c>
-      <c r="E30" s="53"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="42" t="s">
-        <v>187</v>
+      <c r="D30" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="E30" s="28"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="17" t="s">
+        <v>180</v>
       </c>
       <c r="H30" s="11">
         <v>28</v>
       </c>
-      <c r="I30" s="55" t="s">
+      <c r="I30" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="J30" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="K30" s="56" t="s">
+      <c r="J30" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="K30" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="L30" s="57" t="s">
+      <c r="L30" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="M30" s="58"/>
-      <c r="N30" s="58" t="s">
+      <c r="M30" s="33"/>
+      <c r="N30" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="O30" s="60" t="s">
-        <v>262</v>
+      <c r="O30" s="35" t="s">
+        <v>255</v>
       </c>
       <c r="P30" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Q30" s="48">
+      <c r="Q30" s="23">
         <v>6</v>
       </c>
-      <c r="R30" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="S30" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="T30" s="50" t="s">
-        <v>231</v>
-      </c>
-      <c r="U30" s="48" t="s">
-        <v>232</v>
+      <c r="R30" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="S30" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="T30" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="U30" s="23" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
@@ -3816,12 +3794,6 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -3836,6 +3808,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
